--- a/vytrack_testusers.xlsx
+++ b/vytrack_testusers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufjon/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hacet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2619DA58-6DD0-4D44-B570-C028C98726BF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090B1071-EE9D-44B8-8B0B-F378FD9E534D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41120" yWindow="1540" windowWidth="33600" windowHeight="18920" activeTab="5" xr2:uid="{506372D9-39D2-EA47-AA3D-ABD5428ED2AB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{506372D9-39D2-EA47-AA3D-ABD5428ED2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="QA1-all" sheetId="4" r:id="rId1"/>
@@ -4823,17 +4823,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D70E95-9193-2444-8F5D-57688B5675B2}">
   <dimension ref="A1:D302"/>
   <sheetViews>
-    <sheetView topLeftCell="A212" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A231" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A210" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A231" sqref="A231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -9067,17 +9067,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25414FC-EB42-5647-8F63-8642E32C4CF3}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>204</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>205</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>206</v>
       </c>
@@ -9358,17 +9358,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E126431-3714-5A42-8C23-7F054B5E2FB1}">
   <dimension ref="A1:D302"/>
   <sheetViews>
-    <sheetView topLeftCell="A236" zoomScale="223" workbookViewId="0">
+    <sheetView topLeftCell="A171" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -9522,7 +9522,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -9550,7 +9550,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -9704,7 +9704,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -10166,7 +10166,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -10502,7 +10502,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -10530,7 +10530,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -10698,7 +10698,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -10712,7 +10712,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -10796,7 +10796,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -10810,7 +10810,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -10908,7 +10908,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -10950,7 +10950,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -10964,7 +10964,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -10992,7 +10992,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -11006,7 +11006,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -11034,7 +11034,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -11230,7 +11230,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -11244,7 +11244,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -11258,7 +11258,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -11272,7 +11272,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -11286,7 +11286,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -11314,7 +11314,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -11370,7 +11370,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -11398,7 +11398,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -11412,7 +11412,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -11454,7 +11454,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -11594,7 +11594,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -11608,7 +11608,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -11636,7 +11636,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -11650,7 +11650,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -11678,7 +11678,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -11692,7 +11692,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -11748,7 +11748,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -11902,7 +11902,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -11958,7 +11958,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -11986,7 +11986,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -12000,7 +12000,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -12014,7 +12014,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -12056,7 +12056,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -12070,7 +12070,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -12098,7 +12098,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -12140,7 +12140,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -12168,7 +12168,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -12196,7 +12196,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -12224,7 +12224,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -12336,7 +12336,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -12378,7 +12378,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -12448,7 +12448,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -12490,7 +12490,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -12504,7 +12504,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -12532,7 +12532,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -12644,7 +12644,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -12658,7 +12658,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -12686,7 +12686,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -12714,7 +12714,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -12770,7 +12770,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -12784,7 +12784,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -12798,7 +12798,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -12812,7 +12812,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -12826,7 +12826,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -12840,7 +12840,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -12896,7 +12896,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -12910,7 +12910,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -12938,7 +12938,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -12952,7 +12952,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -13022,7 +13022,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -13036,7 +13036,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -13050,7 +13050,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -13134,7 +13134,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -13148,7 +13148,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -13176,7 +13176,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -13190,7 +13190,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -13204,7 +13204,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -13218,7 +13218,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -13260,7 +13260,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -13274,7 +13274,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -13288,7 +13288,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -13330,7 +13330,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -13358,7 +13358,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -13372,7 +13372,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -13386,7 +13386,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -13414,7 +13414,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -13428,7 +13428,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -13470,7 +13470,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -13526,7 +13526,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -13540,7 +13540,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -13554,7 +13554,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -13568,7 +13568,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -13605,17 +13605,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE515BF-79FE-384F-8A87-78DFBA2D1E2F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="223" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13632,7 +13632,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13649,7 +13649,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13700,7 +13700,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13717,7 +13717,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -13819,7 +13819,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>204</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>205</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>206</v>
       </c>
@@ -13896,17 +13896,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99F80EE-B930-AE45-9D4A-163325A2F9E5}">
   <dimension ref="A1:D302"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13934,7 +13934,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -14004,7 +14004,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -14018,7 +14018,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -14032,7 +14032,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -14046,7 +14046,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -14074,7 +14074,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -14102,7 +14102,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -14130,7 +14130,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -14144,7 +14144,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -14158,7 +14158,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -14172,7 +14172,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -14186,7 +14186,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -14200,7 +14200,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -14214,7 +14214,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -14256,7 +14256,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -14270,7 +14270,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -14312,7 +14312,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -14326,7 +14326,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -14340,7 +14340,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -14382,7 +14382,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -14396,7 +14396,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -14410,7 +14410,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -14424,7 +14424,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -14438,7 +14438,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -14480,7 +14480,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -14494,7 +14494,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -14522,7 +14522,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -14564,7 +14564,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -14592,7 +14592,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -14634,7 +14634,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -14662,7 +14662,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -14690,7 +14690,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -14704,7 +14704,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -14718,7 +14718,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -14732,7 +14732,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -14746,7 +14746,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -14760,7 +14760,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -14816,7 +14816,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -14830,7 +14830,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -14858,7 +14858,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -14872,7 +14872,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -14886,7 +14886,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -14900,7 +14900,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -14914,7 +14914,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -14942,7 +14942,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -15026,7 +15026,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -15054,7 +15054,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -15082,7 +15082,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -15096,7 +15096,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -15124,7 +15124,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -15152,7 +15152,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -15166,7 +15166,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -15180,7 +15180,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -15194,7 +15194,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -15208,7 +15208,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -15222,7 +15222,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -15250,7 +15250,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -15264,7 +15264,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -15292,7 +15292,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -15306,7 +15306,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -15334,7 +15334,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -15362,7 +15362,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -15376,7 +15376,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -15390,7 +15390,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -15404,7 +15404,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -15418,7 +15418,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -15432,7 +15432,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -15446,7 +15446,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -15460,7 +15460,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -15474,7 +15474,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -15488,7 +15488,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -15502,7 +15502,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -15516,7 +15516,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -15530,7 +15530,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -15544,7 +15544,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -15558,7 +15558,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -15572,7 +15572,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -15586,7 +15586,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -15600,7 +15600,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -15642,7 +15642,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -15656,7 +15656,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -15670,7 +15670,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -15684,7 +15684,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -15698,7 +15698,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -15726,7 +15726,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -15740,7 +15740,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -15768,7 +15768,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -15782,7 +15782,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -15796,7 +15796,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -15810,7 +15810,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -15824,7 +15824,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -15838,7 +15838,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -15852,7 +15852,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -15866,7 +15866,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -15880,7 +15880,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -15908,7 +15908,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -15922,7 +15922,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -15936,7 +15936,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -15950,7 +15950,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -15964,7 +15964,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -15978,7 +15978,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -15992,7 +15992,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -16006,7 +16006,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -16020,7 +16020,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -16034,7 +16034,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -16048,7 +16048,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -16062,7 +16062,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -16090,7 +16090,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -16104,7 +16104,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -16118,7 +16118,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -16132,7 +16132,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -16146,7 +16146,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -16160,7 +16160,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -16174,7 +16174,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -16188,7 +16188,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -16202,7 +16202,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -16216,7 +16216,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -16230,7 +16230,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -16244,7 +16244,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -16258,7 +16258,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -16272,7 +16272,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -16286,7 +16286,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -16300,7 +16300,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -16314,7 +16314,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -16328,7 +16328,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -16342,7 +16342,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -16356,7 +16356,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -16384,7 +16384,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -16412,7 +16412,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -16426,7 +16426,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -16454,7 +16454,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -16482,7 +16482,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -16496,7 +16496,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -16510,7 +16510,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -16524,7 +16524,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -16538,7 +16538,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -16552,7 +16552,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -16566,7 +16566,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -16580,7 +16580,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -16594,7 +16594,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -16608,7 +16608,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -16622,7 +16622,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -16636,7 +16636,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -16664,7 +16664,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -16678,7 +16678,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -16692,7 +16692,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -16706,7 +16706,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -16734,7 +16734,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -16748,7 +16748,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -16762,7 +16762,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -16776,7 +16776,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -16790,7 +16790,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -16818,7 +16818,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -16832,7 +16832,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -16846,7 +16846,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -16860,7 +16860,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -16874,7 +16874,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -16888,7 +16888,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -16902,7 +16902,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -16916,7 +16916,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -16930,7 +16930,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -16944,7 +16944,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -16958,7 +16958,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -16986,7 +16986,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -17000,7 +17000,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -17014,7 +17014,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -17028,7 +17028,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -17070,7 +17070,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -17084,7 +17084,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -17098,7 +17098,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -17112,7 +17112,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -17126,7 +17126,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -17140,7 +17140,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -17154,7 +17154,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -17168,7 +17168,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -17182,7 +17182,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -17210,7 +17210,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -17224,7 +17224,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -17238,7 +17238,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -17252,7 +17252,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -17266,7 +17266,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -17280,7 +17280,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -17294,7 +17294,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -17308,7 +17308,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -17322,7 +17322,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -17336,7 +17336,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -17350,7 +17350,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -17364,7 +17364,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -17378,7 +17378,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -17392,7 +17392,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -17406,7 +17406,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -17420,7 +17420,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -17434,7 +17434,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -17448,7 +17448,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -17462,7 +17462,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -17476,7 +17476,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -17490,7 +17490,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -17504,7 +17504,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -17518,7 +17518,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -17532,7 +17532,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -17546,7 +17546,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -17560,7 +17560,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -17574,7 +17574,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -17588,7 +17588,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -17602,7 +17602,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -17616,7 +17616,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -17630,7 +17630,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -17672,7 +17672,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -17686,7 +17686,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -17700,7 +17700,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -17714,7 +17714,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -17728,7 +17728,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -17742,7 +17742,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -17756,7 +17756,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -17770,7 +17770,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -17784,7 +17784,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -17798,7 +17798,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -17812,7 +17812,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -17826,7 +17826,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -17840,7 +17840,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -17854,7 +17854,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -17868,7 +17868,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -17882,7 +17882,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -17910,7 +17910,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -17924,7 +17924,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -17938,7 +17938,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -17952,7 +17952,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -17966,7 +17966,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -17980,7 +17980,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -17994,7 +17994,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -18008,7 +18008,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -18022,7 +18022,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -18036,7 +18036,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -18050,7 +18050,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -18064,7 +18064,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -18092,7 +18092,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -18106,7 +18106,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -18120,7 +18120,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -18143,17 +18143,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C30F00C-C683-0548-B7C4-02FB1EBCAEF1}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1473</v>
       </c>
@@ -18170,7 +18170,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1474</v>
       </c>
@@ -18187,7 +18187,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1474</v>
       </c>
@@ -18204,7 +18204,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1475</v>
       </c>
@@ -18221,7 +18221,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1475</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1475</v>
       </c>
@@ -18255,7 +18255,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1474</v>
       </c>
@@ -18272,7 +18272,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1474</v>
       </c>
@@ -18289,7 +18289,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1475</v>
       </c>
@@ -18306,7 +18306,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1475</v>
       </c>
@@ -18323,7 +18323,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1475</v>
       </c>
@@ -18340,7 +18340,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1474</v>
       </c>
@@ -18357,7 +18357,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1474</v>
       </c>
@@ -18374,7 +18374,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1475</v>
       </c>
@@ -18391,7 +18391,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1475</v>
       </c>
@@ -18408,7 +18408,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1475</v>
       </c>
